--- a/Probability_of_default.xlsx
+++ b/Probability_of_default.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ananya Trivedi\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/673d889d1001e1e1/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A77205E-E7D2-484F-BCAD-D86B4A50D8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{3A77205E-E7D2-484F-BCAD-D86B4A50D8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A038EC93-4441-4B89-86C1-107022EDF46A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{31BA7296-DB36-4F73-944C-A68C0B1627CE}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$221</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$211</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="27">
   <si>
     <t>Banks</t>
   </si>
@@ -101,6 +101,15 @@
   <si>
     <t>Unicredit</t>
   </si>
+  <si>
+    <t>Labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distressed </t>
+  </si>
+  <si>
+    <t>Not-Distressed</t>
+  </si>
 </sst>
 </file>
 
@@ -115,7 +124,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,6 +149,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -153,11 +168,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,19 +488,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4500952E-1F8D-435B-879F-2BA9EE4CB33F}">
-  <dimension ref="A1:C211"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K181" sqref="K181"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.88671875" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,8 +512,11 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -505,8 +526,11 @@
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -516,8 +540,11 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -527,8 +554,11 @@
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -538,8 +568,11 @@
       <c r="C5">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -549,8 +582,11 @@
       <c r="C6">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -560,8 +596,11 @@
       <c r="C7">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -571,8 +610,11 @@
       <c r="C8">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -582,8 +624,11 @@
       <c r="C9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -593,8 +638,11 @@
       <c r="C10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -604,8 +652,11 @@
       <c r="C11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -615,8 +666,11 @@
       <c r="C12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -626,8 +680,11 @@
       <c r="C13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -637,8 +694,11 @@
       <c r="C14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -648,8 +708,11 @@
       <c r="C15">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -659,8 +722,11 @@
       <c r="C16">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -670,8 +736,11 @@
       <c r="C17">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -681,8 +750,11 @@
       <c r="C18">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -692,8 +764,11 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -703,8 +778,11 @@
       <c r="C20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -714,8 +792,11 @@
       <c r="C21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -725,8 +806,11 @@
       <c r="C22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -736,8 +820,11 @@
       <c r="C23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -747,8 +834,11 @@
       <c r="C24">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -758,8 +848,11 @@
       <c r="C25">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -769,8 +862,11 @@
       <c r="C26">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -780,8 +876,11 @@
       <c r="C27">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -791,8 +890,11 @@
       <c r="C28">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -802,8 +904,11 @@
       <c r="C29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -813,8 +918,11 @@
       <c r="C30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -824,8 +932,11 @@
       <c r="C31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -835,8 +946,11 @@
       <c r="C32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -846,8 +960,11 @@
       <c r="C33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -857,8 +974,11 @@
       <c r="C34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -868,8 +988,11 @@
       <c r="C35">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -879,8 +1002,11 @@
       <c r="C36">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -890,8 +1016,11 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -901,8 +1030,11 @@
       <c r="C38">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -912,8 +1044,11 @@
       <c r="C39">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -923,8 +1058,11 @@
       <c r="C40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -934,8 +1072,11 @@
       <c r="C41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -945,8 +1086,11 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -956,8 +1100,11 @@
       <c r="C43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -967,8 +1114,11 @@
       <c r="C44">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -978,8 +1128,11 @@
       <c r="C45">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -989,8 +1142,11 @@
       <c r="C46">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -1000,8 +1156,11 @@
       <c r="C47">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -1011,8 +1170,11 @@
       <c r="C48">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1022,8 +1184,11 @@
       <c r="C49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1033,8 +1198,11 @@
       <c r="C50">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1044,8 +1212,11 @@
       <c r="C51">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -1055,8 +1226,11 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -1066,8 +1240,11 @@
       <c r="C53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -1077,8 +1254,11 @@
       <c r="C54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -1088,8 +1268,11 @@
       <c r="C55">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -1099,8 +1282,11 @@
       <c r="C56">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -1110,8 +1296,11 @@
       <c r="C57">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -1121,8 +1310,11 @@
       <c r="C58">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -1132,8 +1324,11 @@
       <c r="C59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -1143,8 +1338,11 @@
       <c r="C60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -1154,8 +1352,11 @@
       <c r="C61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -1165,8 +1366,11 @@
       <c r="C62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -1176,8 +1380,11 @@
       <c r="C63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -1187,8 +1394,11 @@
       <c r="C64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -1198,8 +1408,11 @@
       <c r="C65">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -1209,8 +1422,11 @@
       <c r="C66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D66" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -1220,8 +1436,11 @@
       <c r="C67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D67" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -1231,8 +1450,11 @@
       <c r="C68">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D68" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -1242,8 +1464,11 @@
       <c r="C69">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D69" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -1253,8 +1478,11 @@
       <c r="C70">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D70" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -1264,8 +1492,11 @@
       <c r="C71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D71" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -1275,8 +1506,11 @@
       <c r="C72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D72" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -1286,8 +1520,11 @@
       <c r="C73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D73" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -1297,8 +1534,11 @@
       <c r="C74">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D74" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -1308,8 +1548,11 @@
       <c r="C75">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D75" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -1319,8 +1562,11 @@
       <c r="C76">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -1330,8 +1576,11 @@
       <c r="C77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D77" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -1341,8 +1590,11 @@
       <c r="C78">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D78" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -1352,8 +1604,11 @@
       <c r="C79">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D79" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -1363,8 +1618,11 @@
       <c r="C80">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D80" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -1374,8 +1632,11 @@
       <c r="C81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D81" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -1385,8 +1646,11 @@
       <c r="C82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D82" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>11</v>
       </c>
@@ -1396,8 +1660,11 @@
       <c r="C83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D83" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -1407,8 +1674,11 @@
       <c r="C84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D84" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -1418,8 +1688,11 @@
       <c r="C85">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D85" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>11</v>
       </c>
@@ -1429,8 +1702,11 @@
       <c r="C86">
         <v>2.3E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D86" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -1440,8 +1716,11 @@
       <c r="C87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D87" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>11</v>
       </c>
@@ -1451,8 +1730,11 @@
       <c r="C88">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D88" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -1462,8 +1744,11 @@
       <c r="C89">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D89" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>11</v>
       </c>
@@ -1473,8 +1758,11 @@
       <c r="C90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D90" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>11</v>
       </c>
@@ -1484,8 +1772,11 @@
       <c r="C91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D91" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>12</v>
       </c>
@@ -1495,8 +1786,11 @@
       <c r="C92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D92" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>12</v>
       </c>
@@ -1506,8 +1800,11 @@
       <c r="C93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D93" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>12</v>
       </c>
@@ -1517,8 +1814,11 @@
       <c r="C94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D94" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>12</v>
       </c>
@@ -1528,8 +1828,11 @@
       <c r="C95">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D95" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>12</v>
       </c>
@@ -1539,8 +1842,11 @@
       <c r="C96">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D96" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>12</v>
       </c>
@@ -1550,8 +1856,11 @@
       <c r="C97">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D97" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>12</v>
       </c>
@@ -1561,8 +1870,11 @@
       <c r="C98">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D98" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>12</v>
       </c>
@@ -1572,8 +1884,11 @@
       <c r="C99">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D99" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>12</v>
       </c>
@@ -1583,8 +1898,11 @@
       <c r="C100">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D100" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>12</v>
       </c>
@@ -1594,8 +1912,11 @@
       <c r="C101">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D101" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>13</v>
       </c>
@@ -1605,8 +1926,11 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D102" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>13</v>
       </c>
@@ -1616,8 +1940,11 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D103" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>13</v>
       </c>
@@ -1627,8 +1954,11 @@
       <c r="C104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D104" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>13</v>
       </c>
@@ -1638,8 +1968,11 @@
       <c r="C105">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D105" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>13</v>
       </c>
@@ -1649,8 +1982,11 @@
       <c r="C106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D106" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>13</v>
       </c>
@@ -1660,8 +1996,11 @@
       <c r="C107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D107" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>13</v>
       </c>
@@ -1671,8 +2010,11 @@
       <c r="C108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D108" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>13</v>
       </c>
@@ -1682,8 +2024,11 @@
       <c r="C109">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D109" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>13</v>
       </c>
@@ -1693,8 +2038,11 @@
       <c r="C110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D110" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>13</v>
       </c>
@@ -1704,8 +2052,11 @@
       <c r="C111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D111" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>14</v>
       </c>
@@ -1715,8 +2066,11 @@
       <c r="C112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D112" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>14</v>
       </c>
@@ -1726,8 +2080,11 @@
       <c r="C113">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D113" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>14</v>
       </c>
@@ -1737,8 +2094,11 @@
       <c r="C114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D114" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>14</v>
       </c>
@@ -1748,8 +2108,11 @@
       <c r="C115">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D115" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>14</v>
       </c>
@@ -1759,8 +2122,11 @@
       <c r="C116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D116" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>14</v>
       </c>
@@ -1770,8 +2136,11 @@
       <c r="C117">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D117" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>14</v>
       </c>
@@ -1781,8 +2150,11 @@
       <c r="C118">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D118" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>14</v>
       </c>
@@ -1792,8 +2164,11 @@
       <c r="C119">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D119" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>14</v>
       </c>
@@ -1803,8 +2178,11 @@
       <c r="C120">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D120" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>14</v>
       </c>
@@ -1814,8 +2192,11 @@
       <c r="C121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D121" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>15</v>
       </c>
@@ -1825,8 +2206,11 @@
       <c r="C122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D122" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>15</v>
       </c>
@@ -1836,8 +2220,11 @@
       <c r="C123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D123" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>15</v>
       </c>
@@ -1847,8 +2234,11 @@
       <c r="C124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D124" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>15</v>
       </c>
@@ -1858,8 +2248,11 @@
       <c r="C125">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D125" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>15</v>
       </c>
@@ -1869,8 +2262,11 @@
       <c r="C126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D126" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>15</v>
       </c>
@@ -1880,8 +2276,11 @@
       <c r="C127">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D127" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>15</v>
       </c>
@@ -1891,8 +2290,11 @@
       <c r="C128">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D128" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>15</v>
       </c>
@@ -1902,8 +2304,11 @@
       <c r="C129">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D129" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>15</v>
       </c>
@@ -1913,8 +2318,11 @@
       <c r="C130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D130" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>15</v>
       </c>
@@ -1924,8 +2332,11 @@
       <c r="C131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D131" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>16</v>
       </c>
@@ -1935,8 +2346,11 @@
       <c r="C132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D132" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>16</v>
       </c>
@@ -1946,8 +2360,11 @@
       <c r="C133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D133" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>16</v>
       </c>
@@ -1957,8 +2374,11 @@
       <c r="C134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D134" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>16</v>
       </c>
@@ -1968,8 +2388,11 @@
       <c r="C135">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D135" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>16</v>
       </c>
@@ -1979,8 +2402,11 @@
       <c r="C136">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D136" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>16</v>
       </c>
@@ -1990,8 +2416,11 @@
       <c r="C137">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D137" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>16</v>
       </c>
@@ -2001,8 +2430,11 @@
       <c r="C138">
         <v>1.9E-2</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D138" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>16</v>
       </c>
@@ -2012,8 +2444,11 @@
       <c r="C139">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D139" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>16</v>
       </c>
@@ -2023,8 +2458,11 @@
       <c r="C140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D140" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>16</v>
       </c>
@@ -2034,8 +2472,11 @@
       <c r="C141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D141" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>17</v>
       </c>
@@ -2045,8 +2486,11 @@
       <c r="C142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D142" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>17</v>
       </c>
@@ -2056,8 +2500,11 @@
       <c r="C143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D143" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>17</v>
       </c>
@@ -2067,8 +2514,11 @@
       <c r="C144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D144" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>17</v>
       </c>
@@ -2078,8 +2528,11 @@
       <c r="C145">
         <v>0.128</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D145" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>17</v>
       </c>
@@ -2089,8 +2542,11 @@
       <c r="C146">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D146" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>17</v>
       </c>
@@ -2100,8 +2556,11 @@
       <c r="C147">
         <v>1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D147" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>17</v>
       </c>
@@ -2111,8 +2570,11 @@
       <c r="C148">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D148" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>17</v>
       </c>
@@ -2122,8 +2584,11 @@
       <c r="C149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D149" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>17</v>
       </c>
@@ -2133,8 +2598,11 @@
       <c r="C150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D150" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>17</v>
       </c>
@@ -2144,8 +2612,11 @@
       <c r="C151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D151" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>18</v>
       </c>
@@ -2155,8 +2626,11 @@
       <c r="C152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D152" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>18</v>
       </c>
@@ -2166,8 +2640,11 @@
       <c r="C153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D153" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>18</v>
       </c>
@@ -2177,8 +2654,11 @@
       <c r="C154">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D154" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>18</v>
       </c>
@@ -2188,8 +2668,11 @@
       <c r="C155">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D155" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>18</v>
       </c>
@@ -2199,8 +2682,11 @@
       <c r="C156">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D156" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>18</v>
       </c>
@@ -2210,8 +2696,11 @@
       <c r="C157">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D157" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>18</v>
       </c>
@@ -2221,8 +2710,11 @@
       <c r="C158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D158" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>18</v>
       </c>
@@ -2232,8 +2724,11 @@
       <c r="C159">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D159" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>18</v>
       </c>
@@ -2243,8 +2738,11 @@
       <c r="C160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D160" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>18</v>
       </c>
@@ -2254,8 +2752,11 @@
       <c r="C161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D161" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>19</v>
       </c>
@@ -2265,8 +2766,11 @@
       <c r="C162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D162" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>19</v>
       </c>
@@ -2276,8 +2780,11 @@
       <c r="C163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D163" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>19</v>
       </c>
@@ -2287,8 +2794,11 @@
       <c r="C164">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D164" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>19</v>
       </c>
@@ -2298,8 +2808,11 @@
       <c r="C165">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>19</v>
       </c>
@@ -2309,8 +2822,11 @@
       <c r="C166">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D166" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>19</v>
       </c>
@@ -2320,8 +2836,11 @@
       <c r="C167">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D167" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>19</v>
       </c>
@@ -2331,8 +2850,11 @@
       <c r="C168">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D168" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>19</v>
       </c>
@@ -2342,8 +2864,11 @@
       <c r="C169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D169" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>19</v>
       </c>
@@ -2353,8 +2878,11 @@
       <c r="C170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D170" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>19</v>
       </c>
@@ -2364,8 +2892,11 @@
       <c r="C171">
         <v>1.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D171" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>20</v>
       </c>
@@ -2375,8 +2906,11 @@
       <c r="C172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D172" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>20</v>
       </c>
@@ -2386,8 +2920,11 @@
       <c r="C173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D173" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>20</v>
       </c>
@@ -2397,8 +2934,11 @@
       <c r="C174">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D174" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>20</v>
       </c>
@@ -2408,8 +2948,11 @@
       <c r="C175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D175" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>20</v>
       </c>
@@ -2419,8 +2962,11 @@
       <c r="C176">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D176" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>20</v>
       </c>
@@ -2430,8 +2976,11 @@
       <c r="C177">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D177" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>20</v>
       </c>
@@ -2441,8 +2990,11 @@
       <c r="C178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D178" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>20</v>
       </c>
@@ -2452,8 +3004,11 @@
       <c r="C179">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D179" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>20</v>
       </c>
@@ -2463,8 +3018,11 @@
       <c r="C180">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D180" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>20</v>
       </c>
@@ -2474,8 +3032,11 @@
       <c r="C181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D181" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>21</v>
       </c>
@@ -2485,8 +3046,11 @@
       <c r="C182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D182" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>21</v>
       </c>
@@ -2496,8 +3060,11 @@
       <c r="C183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D183" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>21</v>
       </c>
@@ -2507,8 +3074,11 @@
       <c r="C184">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D184" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>21</v>
       </c>
@@ -2518,8 +3088,11 @@
       <c r="C185">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D185" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>21</v>
       </c>
@@ -2529,8 +3102,11 @@
       <c r="C186">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D186" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>21</v>
       </c>
@@ -2540,8 +3116,11 @@
       <c r="C187">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D187" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>21</v>
       </c>
@@ -2551,8 +3130,11 @@
       <c r="C188">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D188" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>21</v>
       </c>
@@ -2562,8 +3144,11 @@
       <c r="C189">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D189" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>21</v>
       </c>
@@ -2573,8 +3158,11 @@
       <c r="C190">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D190" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>21</v>
       </c>
@@ -2584,8 +3172,11 @@
       <c r="C191">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D191" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>22</v>
       </c>
@@ -2595,8 +3186,11 @@
       <c r="C192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D192" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>22</v>
       </c>
@@ -2606,8 +3200,11 @@
       <c r="C193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D193" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>22</v>
       </c>
@@ -2617,8 +3214,11 @@
       <c r="C194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D194" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>22</v>
       </c>
@@ -2628,8 +3228,11 @@
       <c r="C195">
         <v>0.105</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D195" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>22</v>
       </c>
@@ -2639,8 +3242,11 @@
       <c r="C196">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D196" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>22</v>
       </c>
@@ -2650,8 +3256,11 @@
       <c r="C197">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D197" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>22</v>
       </c>
@@ -2661,8 +3270,11 @@
       <c r="C198">
         <v>2.1000000000000001E-2</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D198" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>22</v>
       </c>
@@ -2672,8 +3284,11 @@
       <c r="C199">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D199" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>22</v>
       </c>
@@ -2683,8 +3298,11 @@
       <c r="C200">
         <v>1.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D200" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>22</v>
       </c>
@@ -2694,8 +3312,11 @@
       <c r="C201">
         <v>3.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D201" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>23</v>
       </c>
@@ -2705,8 +3326,11 @@
       <c r="C202">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D202" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>23</v>
       </c>
@@ -2716,8 +3340,11 @@
       <c r="C203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D203" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>23</v>
       </c>
@@ -2727,8 +3354,11 @@
       <c r="C204">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D204" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>23</v>
       </c>
@@ -2738,8 +3368,11 @@
       <c r="C205">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D205" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>23</v>
       </c>
@@ -2749,8 +3382,11 @@
       <c r="C206">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D206" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>23</v>
       </c>
@@ -2760,8 +3396,11 @@
       <c r="C207">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D207" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>23</v>
       </c>
@@ -2771,8 +3410,11 @@
       <c r="C208">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D208" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>23</v>
       </c>
@@ -2782,8 +3424,11 @@
       <c r="C209">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D209" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>23</v>
       </c>
@@ -2793,8 +3438,11 @@
       <c r="C210">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D210" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>23</v>
       </c>
@@ -2804,9 +3452,19 @@
       <c r="C211">
         <v>0.03</v>
       </c>
+      <c r="D211" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B221" xr:uid="{4500952E-1F8D-435B-879F-2BA9EE4CB33F}"/>
+  <autoFilter ref="A1:D211" xr:uid="{4500952E-1F8D-435B-879F-2BA9EE4CB33F}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Distressed"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>